--- a/benchmark17/Algorithm_Rankings.xlsx
+++ b/benchmark17/Algorithm_Rankings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="552" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="138" uniqueCount="103">
   <si>
     <t>F1_30</t>
   </si>
@@ -286,13 +286,13 @@
     <t>TSO</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>GWO</t>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>PLO</t>
   </si>
   <si>
     <t>TLBO</t>
@@ -380,9 +380,9 @@
     <col min="1" max="1" width="7.81640625" customWidth="true"/>
     <col min="2" max="2" width="4.1796875" customWidth="true"/>
     <col min="3" max="3" width="4.1796875" customWidth="true"/>
-    <col min="4" max="4" width="3.36328125" customWidth="true"/>
-    <col min="5" max="5" width="4.26953125" customWidth="true"/>
-    <col min="6" max="6" width="5.36328125" customWidth="true"/>
+    <col min="4" max="4" width="3.26953125" customWidth="true"/>
+    <col min="5" max="5" width="4.36328125" customWidth="true"/>
+    <col min="6" max="6" width="4.08984375" customWidth="true"/>
     <col min="7" max="7" width="5.1796875" customWidth="true"/>
     <col min="8" max="8" width="4.1796875" customWidth="true"/>
     <col min="9" max="9" width="5.1796875" customWidth="true"/>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
@@ -449,25 +449,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
@@ -478,22 +478,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="0">
         <v>2</v>
@@ -510,19 +510,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
@@ -542,13 +542,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0">
         <v>7</v>
       </c>
       <c r="F6" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="0">
         <v>5</v>
@@ -565,22 +565,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0">
         <v>2</v>
@@ -594,22 +594,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0">
         <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0">
         <v>3</v>
       </c>
       <c r="D9" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
@@ -652,22 +652,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="0">
         <v>2</v>
@@ -681,22 +681,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0">
         <v>3</v>
       </c>
       <c r="D11" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
@@ -710,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0">
         <v>8</v>
@@ -722,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0">
         <v>1</v>
@@ -739,19 +739,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="0">
         <v>6</v>
@@ -768,25 +768,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0">
         <v>8</v>
       </c>
       <c r="E14" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0">
         <v>1</v>
@@ -797,25 +797,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0">
         <v>8</v>
       </c>
       <c r="E15" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0">
         <v>1</v>
@@ -826,22 +826,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="0">
         <v>8</v>
       </c>
       <c r="E16" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -855,22 +855,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0">
         <v>2</v>
@@ -884,25 +884,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0">
         <v>8</v>
       </c>
       <c r="E18" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0">
         <v>1</v>
@@ -913,25 +913,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="0">
         <v>5</v>
       </c>
       <c r="H19" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0">
         <v>1</v>
@@ -942,22 +942,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="0">
         <v>2</v>
@@ -971,25 +971,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="0">
         <v>1</v>
@@ -1000,22 +1000,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="0">
         <v>8</v>
       </c>
       <c r="E22" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="0">
         <v>2</v>
@@ -1032,22 +1032,22 @@
         <v>5</v>
       </c>
       <c r="C23" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="0">
         <v>7</v>
       </c>
       <c r="F23" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H23" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="0">
         <v>1</v>
@@ -1061,22 +1061,22 @@
         <v>5</v>
       </c>
       <c r="C24" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H24" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="0">
         <v>1</v>
@@ -1090,19 +1090,19 @@
         <v>5</v>
       </c>
       <c r="C25" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G25" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25" s="0">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="0">
         <v>6</v>
       </c>
       <c r="F26" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
       </c>
       <c r="I26" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1145,22 +1145,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0">
         <v>5</v>
       </c>
       <c r="D27" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G27" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" s="0">
         <v>2</v>
@@ -1180,16 +1180,16 @@
         <v>5</v>
       </c>
       <c r="D28" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G28" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" s="0">
         <v>2</v>
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0">
         <v>3</v>
       </c>
       <c r="D29" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" s="0">
         <v>2</v>
@@ -1232,22 +1232,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0">
         <v>3</v>
       </c>
       <c r="D30" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30" s="0">
         <v>2</v>
@@ -1267,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H31" s="0">
         <v>2</v>
@@ -1290,22 +1290,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0">
         <v>3</v>
       </c>
       <c r="D32" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="0">
         <v>5</v>
       </c>
       <c r="G32" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" s="0">
         <v>2</v>
@@ -1319,22 +1319,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" s="0">
         <v>2</v>
@@ -1348,22 +1348,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" s="0">
         <v>2</v>
@@ -1383,16 +1383,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H35" s="0">
         <v>2</v>
@@ -1409,19 +1409,19 @@
         <v>5</v>
       </c>
       <c r="C36" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F36" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" s="0">
         <v>2</v>
@@ -1435,22 +1435,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E37" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37" s="0">
         <v>2</v>
@@ -1470,16 +1470,16 @@
         <v>3</v>
       </c>
       <c r="D38" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="0">
         <v>4</v>
       </c>
       <c r="G38" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38" s="0">
         <v>2</v>
@@ -1493,22 +1493,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" s="0">
         <v>1</v>
       </c>
       <c r="D39" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39" s="0">
         <v>4</v>
       </c>
       <c r="G39" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H39" s="0">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" s="0">
         <v>3</v>
@@ -1531,13 +1531,13 @@
         <v>6</v>
       </c>
       <c r="E40" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" s="0">
         <v>2</v>
@@ -1557,16 +1557,16 @@
         <v>3</v>
       </c>
       <c r="D41" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="0">
         <v>5</v>
       </c>
       <c r="G41" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H41" s="0">
         <v>2</v>
@@ -1580,22 +1580,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0">
         <v>3</v>
       </c>
       <c r="D42" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H42" s="0">
         <v>2</v>
@@ -1609,22 +1609,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" s="0">
         <v>5</v>
       </c>
       <c r="G43" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H43" s="0">
         <v>2</v>
@@ -1638,25 +1638,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44" s="0">
         <v>1</v>
@@ -1667,25 +1667,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="0">
         <v>6</v>
       </c>
       <c r="F45" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G45" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="0">
         <v>1</v>
@@ -1699,19 +1699,19 @@
         <v>5</v>
       </c>
       <c r="C46" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H46" s="0">
         <v>2</v>
@@ -1725,25 +1725,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F47" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G47" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="0">
         <v>1</v>
@@ -1754,22 +1754,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48" s="0">
         <v>2</v>
@@ -1783,28 +1783,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H49" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1812,22 +1812,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C50" s="0">
         <v>3</v>
       </c>
       <c r="D50" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" s="0">
         <v>5</v>
       </c>
       <c r="G50" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" s="0">
         <v>1</v>
@@ -1841,22 +1841,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="0">
         <v>3</v>
       </c>
       <c r="D51" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F51" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51" s="0">
         <v>2</v>
@@ -1870,22 +1870,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0">
         <v>2</v>
       </c>
       <c r="D52" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H52" s="0">
         <v>3</v>
@@ -1905,16 +1905,16 @@
         <v>3</v>
       </c>
       <c r="D53" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" s="0">
         <v>5</v>
       </c>
       <c r="G53" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H53" s="0">
         <v>2</v>
@@ -1928,22 +1928,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="0">
         <v>3</v>
       </c>
       <c r="D54" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" s="0">
         <v>4</v>
       </c>
       <c r="G54" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H54" s="0">
         <v>1</v>
@@ -1957,22 +1957,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" s="0">
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F55" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H55" s="0">
         <v>2</v>
@@ -1986,22 +1986,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="0">
         <v>3</v>
       </c>
       <c r="D56" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H56" s="0">
         <v>2</v>
@@ -2015,22 +2015,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="0">
         <v>3</v>
       </c>
       <c r="D57" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="0">
         <v>2</v>
@@ -2044,22 +2044,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" s="0">
         <v>7</v>
       </c>
       <c r="F58" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G58" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" s="0">
         <v>2</v>
@@ -2073,22 +2073,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="0">
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G59" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H59" s="0">
         <v>3</v>
@@ -2102,22 +2102,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H60" s="0">
         <v>2</v>
@@ -2131,10 +2131,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="0">
         <v>8</v>
@@ -2143,10 +2143,10 @@
         <v>7</v>
       </c>
       <c r="F61" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G61" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" s="0">
         <v>2</v>
@@ -2160,22 +2160,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="0">
         <v>3</v>
       </c>
       <c r="D62" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" s="0">
         <v>2</v>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" s="0">
         <v>6</v>
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63" s="0">
         <v>2</v>
@@ -2224,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="D64" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F64" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G64" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" s="0">
         <v>2</v>
@@ -2247,22 +2247,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F65" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G65" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H65" s="0">
         <v>1</v>
@@ -2276,22 +2276,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H66" s="0">
         <v>2</v>
@@ -2305,22 +2305,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H67" s="0">
         <v>2</v>
@@ -2334,25 +2334,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G68" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H68" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="0">
         <v>1</v>
@@ -2363,25 +2363,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H69" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="0">
         <v>1</v>
@@ -2392,25 +2392,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F70" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H70" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="0">
         <v>1</v>
@@ -2433,10 +2433,10 @@
         <v>6</v>
       </c>
       <c r="F71" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H71" s="0">
         <v>1</v>
@@ -2450,22 +2450,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="0">
         <v>3</v>
       </c>
       <c r="D72" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G72" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H72" s="0">
         <v>2</v>
@@ -2479,22 +2479,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E73" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F73" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G73" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H73" s="0">
         <v>2</v>
@@ -2508,22 +2508,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" s="0">
         <v>3</v>
       </c>
       <c r="D74" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E74" s="0">
         <v>5</v>
       </c>
       <c r="F74" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G74" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H74" s="0">
         <v>2</v>
@@ -2537,22 +2537,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E75" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F75" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G75" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H75" s="0">
         <v>2</v>
@@ -2566,22 +2566,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E76" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F76" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H76" s="0">
         <v>2</v>
@@ -2595,28 +2595,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F77" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G77" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H77" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2627,19 +2627,19 @@
         <v>3</v>
       </c>
       <c r="C78" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G78" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H78" s="0">
         <v>2</v>
@@ -2653,22 +2653,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F79" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H79" s="0">
         <v>2</v>
@@ -2682,7 +2682,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="0">
         <v>3</v>
@@ -2694,10 +2694,10 @@
         <v>6</v>
       </c>
       <c r="F80" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G80" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H80" s="0">
         <v>2</v>
@@ -2711,22 +2711,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="0">
         <v>3</v>
       </c>
       <c r="D81" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G81" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81" s="0">
         <v>2</v>
@@ -2740,22 +2740,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F82" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G82" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82" s="0">
         <v>2</v>
@@ -2769,22 +2769,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H83" s="0">
         <v>2</v>
@@ -2798,22 +2798,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" s="0">
         <v>6</v>
       </c>
       <c r="F84" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G84" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="0">
         <v>2</v>
@@ -2827,22 +2827,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85" s="0">
         <v>2</v>
@@ -2862,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" s="0">
         <v>6</v>
@@ -2871,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="G86" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H86" s="0">
         <v>2</v>
@@ -2885,22 +2885,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="0">
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" s="0">
         <v>6</v>
       </c>
       <c r="F87" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" s="0">
         <v>3</v>
@@ -2914,22 +2914,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" s="0">
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E88" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" s="0">
         <v>2</v>
@@ -2951,9 +2951,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true"/>
-    <col min="2" max="2" width="4.26953125" customWidth="true"/>
-    <col min="3" max="3" width="3.36328125" customWidth="true"/>
-    <col min="4" max="4" width="5.36328125" customWidth="true"/>
+    <col min="2" max="2" width="4.36328125" customWidth="true"/>
+    <col min="3" max="3" width="4.08984375" customWidth="true"/>
+    <col min="4" max="4" width="3.26953125" customWidth="true"/>
     <col min="5" max="5" width="4.1796875" customWidth="true"/>
     <col min="6" max="6" width="4.1796875" customWidth="true"/>
     <col min="7" max="7" width="5.1796875" customWidth="true"/>
@@ -2961,104 +2961,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>29</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>29</v>
       </c>
-      <c r="D2" s="0">
-        <v>27</v>
-      </c>
-      <c r="E2" s="0">
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="F2" s="0">
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>29</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -3075,9 +3075,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true"/>
-    <col min="2" max="2" width="4.26953125" customWidth="true"/>
-    <col min="3" max="3" width="3.36328125" customWidth="true"/>
-    <col min="4" max="4" width="5.36328125" customWidth="true"/>
+    <col min="2" max="2" width="4.36328125" customWidth="true"/>
+    <col min="3" max="3" width="4.08984375" customWidth="true"/>
+    <col min="4" max="4" width="3.26953125" customWidth="true"/>
     <col min="5" max="5" width="4.1796875" customWidth="true"/>
     <col min="6" max="6" width="4.1796875" customWidth="true"/>
     <col min="7" max="7" width="5.1796875" customWidth="true"/>
@@ -3085,104 +3085,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>29</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>29</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>29</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>28</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>29</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -3199,9 +3199,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true"/>
-    <col min="2" max="2" width="4.26953125" customWidth="true"/>
-    <col min="3" max="3" width="3.36328125" customWidth="true"/>
-    <col min="4" max="4" width="5.36328125" customWidth="true"/>
+    <col min="2" max="2" width="4.36328125" customWidth="true"/>
+    <col min="3" max="3" width="4.08984375" customWidth="true"/>
+    <col min="4" max="4" width="3.26953125" customWidth="true"/>
     <col min="5" max="5" width="4.1796875" customWidth="true"/>
     <col min="6" max="6" width="4.1796875" customWidth="true"/>
     <col min="7" max="7" width="5.1796875" customWidth="true"/>
@@ -3209,104 +3209,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>29</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>29</v>
       </c>
-      <c r="D2" s="0">
-        <v>28</v>
-      </c>
-      <c r="E2" s="0">
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="F2" s="0">
+      <c r="E2">
         <v>29</v>
       </c>
-      <c r="G2" s="0">
+      <c r="F2">
         <v>29</v>
       </c>
-      <c r="H2" s="0">
+      <c r="G2">
         <v>29</v>
       </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -3330,156 +3330,156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="0">
-        <v>4.9655172413793105</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4.8620689655172411</v>
-      </c>
-      <c r="D2" s="0">
-        <v>5.068965517241379</v>
-      </c>
-      <c r="E2" s="0">
-        <v>4.9655172413793105</v>
+      <c r="B2">
+        <v>4.4137931034482758</v>
+      </c>
+      <c r="C2">
+        <v>4.8965517241379306</v>
+      </c>
+      <c r="D2">
+        <v>5.6896551724137927</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="0">
-        <v>3.3448275862068964</v>
-      </c>
-      <c r="C3" s="0">
-        <v>3.5172413793103448</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3.7241379310344827</v>
-      </c>
-      <c r="E3" s="0">
-        <v>3.5287356321839081</v>
+      <c r="B3">
+        <v>3.0344827586206895</v>
+      </c>
+      <c r="C3">
+        <v>3.2758620689655173</v>
+      </c>
+      <c r="D3">
+        <v>3.5862068965517242</v>
+      </c>
+      <c r="E3">
+        <v>3.2988505747126435</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="0">
-        <v>7.931034482758621</v>
-      </c>
-      <c r="C4" s="0">
-        <v>7.9655172413793105</v>
-      </c>
-      <c r="D4" s="0">
-        <v>7.931034482758621</v>
-      </c>
-      <c r="E4" s="0">
-        <v>7.9425287356321848</v>
+      <c r="B4">
+        <v>6.7931034482758621</v>
+      </c>
+      <c r="C4">
+        <v>6.5172413793103452</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>6.4367816091954024</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="0">
-        <v>6.1724137931034484</v>
-      </c>
-      <c r="C5" s="0">
-        <v>6.4137931034482758</v>
-      </c>
-      <c r="D5" s="0">
-        <v>6.4137931034482758</v>
-      </c>
-      <c r="E5" s="0">
-        <v>6.333333333333333</v>
+      <c r="B5">
+        <v>6.2758620689655169</v>
+      </c>
+      <c r="C5">
+        <v>5.6896551724137927</v>
+      </c>
+      <c r="D5">
+        <v>4.6206896551724137</v>
+      </c>
+      <c r="E5">
+        <v>5.5287356321839072</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="0">
-        <v>3.5172413793103448</v>
-      </c>
-      <c r="C6" s="0">
-        <v>3.3793103448275863</v>
-      </c>
-      <c r="D6" s="0">
-        <v>3.2758620689655173</v>
-      </c>
-      <c r="E6" s="0">
-        <v>3.3908045977011496</v>
+      <c r="B6">
+        <v>5.8965517241379306</v>
+      </c>
+      <c r="C6">
+        <v>5.6551724137931032</v>
+      </c>
+      <c r="D6">
+        <v>6.0344827586206895</v>
+      </c>
+      <c r="E6">
+        <v>5.8620689655172411</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="0">
-        <v>6.6551724137931032</v>
-      </c>
-      <c r="C7" s="0">
-        <v>6.5172413793103452</v>
-      </c>
-      <c r="D7" s="0">
-        <v>6.4137931034482758</v>
-      </c>
-      <c r="E7" s="0">
-        <v>6.5287356321839072</v>
+      <c r="B7">
+        <v>6.4482758620689653</v>
+      </c>
+      <c r="C7">
+        <v>6.8275862068965516</v>
+      </c>
+      <c r="D7">
+        <v>7.0344827586206895</v>
+      </c>
+      <c r="E7">
+        <v>6.7701149425287355</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="0">
-        <v>2.103448275862069</v>
-      </c>
-      <c r="C8" s="0">
-        <v>2.2758620689655173</v>
-      </c>
-      <c r="D8" s="0">
-        <v>2.1379310344827585</v>
-      </c>
-      <c r="E8" s="0">
-        <v>2.1724137931034484</v>
+      <c r="B8">
+        <v>1.896551724137931</v>
+      </c>
+      <c r="C8">
+        <v>2.0689655172413794</v>
+      </c>
+      <c r="D8">
+        <v>2.0344827586206895</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="0">
-        <v>1.3103448275862069</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="B9">
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="C9">
         <v>1.0689655172413792</v>
       </c>
-      <c r="D9" s="0">
-        <v>1.0344827586206897</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1.1379310344827587</v>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.103448275862069</v>
       </c>
     </row>
   </sheetData>
